--- a/assets/examples/xlsx/RS0003/Fan-Continuous.RS0003.a205.xlsx
+++ b/assets/examples/xlsx/RS0003/Fan-Continuous.RS0003.a205.xlsx
@@ -4,13 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RS0003" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="volumetric_air_flow_rate" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="static_pressure_difference" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="performance_map" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="assembly_components" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="standard_air_volumetric_flow_ra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="static_pressure_difference" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="performance_map" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -80,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,6 +89,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="00000000"/>
@@ -101,44 +103,111 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
-    <cellStyle hidden="0" name="Heading" xfId="2"/>
-    <cellStyle hidden="0" name="Schema" xfId="3"/>
-    <cellStyle hidden="0" name="Value" xfId="4"/>
-    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Title" xfId="1" hidden="0"/>
+    <cellStyle name="Heading" xfId="2" hidden="0"/>
+    <cellStyle name="Schema" xfId="3" hidden="0"/>
+    <cellStyle name="Value" xfId="4" hidden="0"/>
+    <cellStyle name="Grid Variables" xfId="5" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -148,134 +217,139 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
-        <t>ASHRAE 205 standard version</t>
+        <t>Metadata data group</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
-        <t>ASHRAE 205 schema version</t>
+        <t>Data model name</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
-        <t>Representation specification identifier</t>
+        <t>Schema name or identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
-        <t>Free-form description of equipment (suitable for display)</t>
+        <t>The version of the schema the data complies with</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A11" shapeId="0">
-      <text>
-        <t>*Representation Specification* Data Group</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A12" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B14" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
-        <t>Name of the manufacturer</t>
+        <t>Assembly/unit manufacturer name</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B15" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
-        <t>Model number for this chiller</t>
+        <t>Assembly/unit model number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Type of impeller in fan assembly</t>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <t>Data group containing performance information</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <t>Nominal or rated air flow rate at standard air conditions</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>Fan assembly is enclosed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A18" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
-        <t>Data group containing performance information</t>
+        <t>An array of components included in the fan assembly air stream, not including any fans</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
-        <t>Nominal air flow rate for fan assembly</t>
+        <t>Fraction of efficiency losses transferred into the air stream</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
-      <text>
-        <t>Fraction of efficiency losses added as heat transferred into the air stream</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>Maximum impeller rotational speed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>Minimum impeller rotational speed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A24" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
-        <t>A description of the stability area for system selection</t>
+        <t>The system curve defining the stability area for system selection</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
-        <t>Volumetric air flow rate through an air distribution system</t>
+        <t>Volumetric air flow rate through an air distribution system at standard air conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
-        <t>Static pressure drop of an air distribution system</t>
+        <t>Static pressure difference of an air distribution system</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
-        <t>Type of performance map (discrete or continuous)</t>
+        <t>Type of performance map</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0">
       <text>
-        <t>Type of fan impeller speed control installed with the fan assembly</t>
+        <t>Type of fan impeller speed control</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A29" shapeId="0">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing fan performance when operating</t>
+        <t>Data group describing fan assembly performance when operating</t>
       </text>
     </comment>
   </commentList>
@@ -288,34 +362,34 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group describing grid variables for continuous fan performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Data group describing lookup variables for continuous fan performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
-        <t>Volumetric air flow rate through fan assembly</t>
+        <t>Volumetric air flow rate through fan assembly at standard air conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
-        <t>Static pressure across fan assembly at dry coil conditions</t>
+        <t>External static pressure across fan assembly at dry coil conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Rotational speed of fan impeller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
-        <t>Power input to fan assembly</t>
+        <t>Mechanical shaft power input to fan assembly</t>
       </text>
     </comment>
   </commentList>
@@ -619,58 +693,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,17 +833,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>PPR2</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -781,12 +851,12 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>schema_version</t>
+          <t>data_model</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>ASHRAE_205</t>
         </is>
       </c>
       <c r="D4" s="4" t="n"/>
@@ -800,7 +870,7 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -819,12 +889,12 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Continuous Fan</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -838,12 +908,12 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>123e4567-e89b-12d3-a456-426614174000</t>
+          <t>Continuous Fan</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -857,12 +927,12 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>2020-05-11T00:00Z</t>
+          <t>123e4567-e89b-12d3-a456-426614174000</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -876,11 +946,13 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1</v>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>2020-05-11T00:00Z</t>
+        </is>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="6" t="inlineStr">
@@ -893,36 +965,38 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
           <t>disclaimer</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Example data not to be used for simulation</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="5" t="n"/>
       <c r="D11" s="4" t="n"/>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B12" s="4" t="n"/>
@@ -933,7 +1007,7 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description.product_information</t>
+          <t>description.product_information</t>
         </is>
       </c>
       <c r="B13" s="4" t="n"/>
@@ -945,7 +1019,7 @@
       <c r="A14" s="4" t="n"/>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        manufacturer</t>
+          <t xml:space="preserve">    manufacturer</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -954,17 +1028,13 @@
         </is>
       </c>
       <c r="D14" s="4" t="n"/>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n"/>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        model_number</t>
+          <t xml:space="preserve">    model_number</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
@@ -973,90 +1043,96 @@
         </is>
       </c>
       <c r="D15" s="4" t="n"/>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        is_enclosed</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="b">
-        <v>0</v>
+          <t xml:space="preserve">    impeller_type</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>CENTRIFUGAL_AIR_FOIL</t>
+        </is>
       </c>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        impeller_type</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>CENTRIFUGAL_AIR_FOIL</t>
-        </is>
-      </c>
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="5" t="n"/>
       <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.performance</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>nominal_standard_air_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    nominal_volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>m3/s</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="n"/>
+          <t>is_enclosed</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    wet_coil_pressure_drop</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
+          <t>assembly_components</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>$assembly_components</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n"/>
       <c r="E20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n"/>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    heat_loss_fraction</t>
+          <t>heat_loss_fraction</t>
         </is>
       </c>
       <c r="C21" s="5" t="n">
@@ -1067,13 +1143,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n"/>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    maximum_impeller_speed</t>
+          <t>maximum_impeller_rotational_speed</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1084,13 +1164,17 @@
           <t>rev/s</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n"/>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n"/>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    minimum_impeller_speed</t>
+          <t>minimum_impeller_rotational_speed</t>
         </is>
       </c>
       <c r="C23" s="5" t="n">
@@ -1101,12 +1185,16 @@
           <t>rev/s</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.stability_curve</t>
+          <t>performance.stability_curve</t>
         </is>
       </c>
       <c r="B24" s="4" t="n"/>
@@ -1118,12 +1206,12 @@
       <c r="A25" s="4" t="n"/>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        volumetric_air_flow_rate</t>
+          <t xml:space="preserve">    standard_air_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>$volumetric_air_flow_rate</t>
+          <t>$standard_air_volumetric_flow_ra</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -1141,7 +1229,7 @@
       <c r="A26" s="4" t="n"/>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        static_pressure_difference</t>
+          <t xml:space="preserve">    static_pressure_difference</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -1164,7 +1252,7 @@
       <c r="A27" s="4" t="n"/>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    performance_map_type</t>
+          <t>operation_speed_control_type</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -1173,13 +1261,17 @@
         </is>
       </c>
       <c r="D27" s="4" t="n"/>
-      <c r="E27" s="6" t="n"/>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n"/>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    speed_control_type</t>
+          <t>installation_speed_control_type</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
@@ -1188,12 +1280,16 @@
         </is>
       </c>
       <c r="D28" s="4" t="n"/>
-      <c r="E28" s="6" t="n"/>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map</t>
+          <t>performance.performance_map</t>
         </is>
       </c>
       <c r="B29" s="4" t="n"/>
@@ -1203,35 +1299,37 @@
         </is>
       </c>
       <c r="D29" s="4" t="n"/>
-      <c r="E29" s="6" t="n"/>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
-      <formula1>"PPR2"</formula1>
+  <dataValidations count="5">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+    <dataValidation sqref="C16" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C16" type="list">
+    <dataValidation sqref="C19" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C17" type="list">
-      <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C27" type="list">
+    <dataValidation sqref="C27" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C28" type="list">
+    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-    <hyperlink ref="C26" r:id="rId2"/>
-    <hyperlink ref="C29" r:id="rId3"/>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId2"/>
+    <hyperlink ref="C26" r:id="rId3"/>
+    <hyperlink ref="C29" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1242,7 +1340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,64 +1348,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.stability_curve.volumetric_air_flow_rate</t>
+          <t>performance.assembly_components</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1365,59 +1463,30 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>volumetric_air_flow_rate</t>
+          <t>assembly_components</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>m3/s</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>0.000943895</v>
-      </c>
+      <c r="A5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>0.002831685</v>
-      </c>
+      <c r="A6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>0.004719475</v>
-      </c>
+      <c r="A7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>0.006607264</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>0.008495054</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>0.010382844</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>0.012270634</v>
-      </c>
+      <c r="A8" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1435,64 +1504,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.stability_curve.static_pressure_difference</t>
+          <t>performance.stability_curve.standard_air_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1550,14 +1619,14 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>static_pressure_difference</t>
+          <t>standard_air_volumetric_flow_rate</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m3/s</t>
         </is>
       </c>
     </row>
@@ -1568,51 +1637,51 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>32.498504</v>
+        <v>0.000943895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>118.995288</v>
+        <v>0.002831685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>258.04708</v>
+        <v>0.004719475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>478.320248</v>
+        <v>0.006607264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>808.48116</v>
+        <v>0.008495054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>1277.196184</v>
+        <v>0.010382844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>1913.131688</v>
+        <v>0.012270634</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ144"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,64 +1689,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map</t>
+          <t>performance.stability_curve.static_pressure_difference</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1733,6 +1802,191 @@
       <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>static_pressure_difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>32.498504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>118.995288</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>258.04708</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>478.320248</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>808.48116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>1277.196184</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1913.131688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>grid_variables</t>
@@ -1749,7 +2003,7 @@
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>volumetric_air_flow_rate</t>
+          <t>standard_air_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -1759,12 +2013,12 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>impeller_speed</t>
+          <t>impeller_rotational_speed</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>input_power</t>
+          <t>shaft_power</t>
         </is>
       </c>
     </row>
@@ -3751,7 +4005,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/assets/examples/xlsx/RS0003/Fan-Continuous.RS0003.a205.xlsx
+++ b/assets/examples/xlsx/RS0003/Fan-Continuous.RS0003.a205.xlsx
@@ -894,7 +894,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0003/Fan-Continuous.RS0003.a205.xlsx
+++ b/assets/examples/xlsx/RS0003/Fan-Continuous.RS0003.a205.xlsx
@@ -894,7 +894,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0003/Fan-Continuous.RS0003.a205.xlsx
+++ b/assets/examples/xlsx/RS0003/Fan-Continuous.RS0003.a205.xlsx
@@ -392,6 +392,11 @@
         <t>Mechanical shaft power input to fan assembly</t>
       </text>
     </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -894,7 +899,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1307,19 +1312,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C16" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation sqref="C19" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C19" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C27" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C27" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1999,6 +2004,7 @@
         </is>
       </c>
       <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2021,6 +2027,11 @@
           <t>shaft_power</t>
         </is>
       </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2041,6 +2052,11 @@
       <c r="D4" s="4" t="inlineStr">
         <is>
           <t>W</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2057,6 +2073,11 @@
       <c r="D5" s="5" t="n">
         <v>4690.453</v>
       </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -2071,6 +2092,11 @@
       <c r="D6" s="5" t="n">
         <v>5480.895</v>
       </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
@@ -2085,6 +2111,11 @@
       <c r="D7" s="5" t="n">
         <v>6293.708</v>
       </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -2099,6 +2130,11 @@
       <c r="D8" s="5" t="n">
         <v>7151.263</v>
       </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
@@ -2113,6 +2149,11 @@
       <c r="D9" s="5" t="n">
         <v>8053.560000000001</v>
       </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
@@ -2127,6 +2168,11 @@
       <c r="D10" s="5" t="n">
         <v>9022.970000000001</v>
       </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
@@ -2141,6 +2187,11 @@
       <c r="D11" s="5" t="n">
         <v>10066.95</v>
       </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -2155,6 +2206,11 @@
       <c r="D12" s="5" t="n">
         <v>11110.93</v>
       </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -2169,6 +2225,11 @@
       <c r="D13" s="5" t="n">
         <v>12154.91</v>
       </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -2183,6 +2244,11 @@
       <c r="D14" s="5" t="n">
         <v>13273.46</v>
       </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -2197,6 +2263,11 @@
       <c r="D15" s="5" t="n">
         <v>5234.814</v>
       </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -2211,6 +2282,11 @@
       <c r="D16" s="5" t="n">
         <v>6077.455000000001</v>
       </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -2225,6 +2301,11 @@
       <c r="D17" s="5" t="n">
         <v>6935.010000000001</v>
       </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -2239,6 +2320,11 @@
       <c r="D18" s="5" t="n">
         <v>7829.85</v>
       </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -2253,6 +2339,11 @@
       <c r="D19" s="5" t="n">
         <v>8724.690000000001</v>
       </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -2267,6 +2358,11 @@
       <c r="D20" s="5" t="n">
         <v>9694.1</v>
       </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -2281,6 +2377,11 @@
       <c r="D21" s="5" t="n">
         <v>10663.51</v>
       </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -2295,6 +2396,11 @@
       <c r="D22" s="5" t="n">
         <v>11707.49</v>
       </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -2309,6 +2415,11 @@
       <c r="D23" s="5" t="n">
         <v>12826.04</v>
       </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -2323,6 +2434,11 @@
       <c r="D24" s="5" t="n">
         <v>14019.16</v>
       </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -2337,6 +2453,11 @@
       <c r="D25" s="5" t="n">
         <v>5823.917</v>
       </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -2351,6 +2472,11 @@
       <c r="D26" s="5" t="n">
         <v>6718.757000000001</v>
       </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -2365,6 +2491,11 @@
       <c r="D27" s="5" t="n">
         <v>7606.14</v>
       </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -2379,6 +2510,11 @@
       <c r="D28" s="5" t="n">
         <v>8575.550000000001</v>
       </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -2393,6 +2529,11 @@
       <c r="D29" s="5" t="n">
         <v>9470.389999999999</v>
       </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -2407,6 +2548,11 @@
       <c r="D30" s="5" t="n">
         <v>10439.8</v>
       </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -2421,6 +2567,11 @@
       <c r="D31" s="5" t="n">
         <v>11483.78</v>
       </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
@@ -2435,6 +2586,11 @@
       <c r="D32" s="5" t="n">
         <v>12527.76</v>
       </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -2449,6 +2605,11 @@
       <c r="D33" s="5" t="n">
         <v>13571.74</v>
       </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -2463,6 +2624,11 @@
       <c r="D34" s="5" t="n">
         <v>14764.86</v>
       </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -2477,6 +2643,11 @@
       <c r="D35" s="5" t="n">
         <v>6465.219</v>
       </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -2491,6 +2662,11 @@
       <c r="D36" s="5" t="n">
         <v>7412.258</v>
       </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -2505,6 +2681,11 @@
       <c r="D37" s="5" t="n">
         <v>8351.84</v>
       </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -2519,6 +2700,11 @@
       <c r="D38" s="5" t="n">
         <v>9321.25</v>
       </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -2533,6 +2719,11 @@
       <c r="D39" s="5" t="n">
         <v>10365.23</v>
       </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -2547,6 +2738,11 @@
       <c r="D40" s="5" t="n">
         <v>11334.64</v>
       </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -2561,6 +2757,11 @@
       <c r="D41" s="5" t="n">
         <v>12378.62</v>
       </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -2575,6 +2776,11 @@
       <c r="D42" s="5" t="n">
         <v>13422.6</v>
       </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
@@ -2589,6 +2795,11 @@
       <c r="D43" s="5" t="n">
         <v>14541.15</v>
       </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -2603,6 +2814,11 @@
       <c r="D44" s="5" t="n">
         <v>15659.7</v>
       </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -2617,6 +2833,11 @@
       <c r="D45" s="5" t="n">
         <v>7151.263</v>
       </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -2631,6 +2852,11 @@
       <c r="D46" s="5" t="n">
         <v>8128.130000000001</v>
       </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -2645,6 +2871,11 @@
       <c r="D47" s="5" t="n">
         <v>9172.110000000001</v>
       </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -2659,6 +2890,11 @@
       <c r="D48" s="5" t="n">
         <v>10216.09</v>
       </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -2673,6 +2909,11 @@
       <c r="D49" s="5" t="n">
         <v>11260.07</v>
       </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -2687,6 +2928,11 @@
       <c r="D50" s="5" t="n">
         <v>12304.05</v>
       </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -2701,6 +2947,11 @@
       <c r="D51" s="5" t="n">
         <v>13348.03</v>
       </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -2715,6 +2966,11 @@
       <c r="D52" s="5" t="n">
         <v>14466.58</v>
       </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -2729,6 +2985,11 @@
       <c r="D53" s="5" t="n">
         <v>15510.56</v>
       </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -2743,6 +3004,11 @@
       <c r="D54" s="5" t="n">
         <v>16703.68</v>
       </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
@@ -2757,6 +3023,11 @@
       <c r="D55" s="5" t="n">
         <v>7904.42</v>
       </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -2771,6 +3042,11 @@
       <c r="D56" s="5" t="n">
         <v>8948.400000000001</v>
       </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -2785,6 +3061,11 @@
       <c r="D57" s="5" t="n">
         <v>9992.380000000001</v>
       </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -2799,6 +3080,11 @@
       <c r="D58" s="5" t="n">
         <v>11110.93</v>
       </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
@@ -2813,6 +3099,11 @@
       <c r="D59" s="5" t="n">
         <v>12229.48</v>
       </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -2827,6 +3118,11 @@
       <c r="D60" s="5" t="n">
         <v>13273.46</v>
       </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -2841,6 +3137,11 @@
       <c r="D61" s="5" t="n">
         <v>14392.01</v>
       </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
@@ -2855,6 +3156,11 @@
       <c r="D62" s="5" t="n">
         <v>15510.56</v>
       </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
@@ -2869,6 +3175,11 @@
       <c r="D63" s="5" t="n">
         <v>16703.68</v>
       </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
@@ -2883,6 +3194,11 @@
       <c r="D64" s="5" t="n">
         <v>17822.23</v>
       </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -2897,6 +3213,11 @@
       <c r="D65" s="5" t="n">
         <v>8724.690000000001</v>
       </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -2911,6 +3232,11 @@
       <c r="D66" s="5" t="n">
         <v>9843.24</v>
       </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
@@ -2925,6 +3251,11 @@
       <c r="D67" s="5" t="n">
         <v>10961.79</v>
       </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
@@ -2939,6 +3270,11 @@
       <c r="D68" s="5" t="n">
         <v>12080.34</v>
       </c>
+      <c r="E68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -2953,6 +3289,11 @@
       <c r="D69" s="5" t="n">
         <v>13198.89</v>
       </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -2967,6 +3308,11 @@
       <c r="D70" s="5" t="n">
         <v>14392.01</v>
       </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="n">
@@ -2981,6 +3327,11 @@
       <c r="D71" s="5" t="n">
         <v>15510.56</v>
       </c>
+      <c r="E71" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -2995,6 +3346,11 @@
       <c r="D72" s="5" t="n">
         <v>16703.68</v>
       </c>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -3009,6 +3365,11 @@
       <c r="D73" s="5" t="n">
         <v>17896.8</v>
       </c>
+      <c r="E73" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -3023,6 +3384,11 @@
       <c r="D74" s="5" t="n">
         <v>19089.92</v>
       </c>
+      <c r="E74" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -3037,6 +3403,11 @@
       <c r="D75" s="5" t="n">
         <v>9544.960000000001</v>
       </c>
+      <c r="E75" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -3051,6 +3422,11 @@
       <c r="D76" s="5" t="n">
         <v>10738.08</v>
       </c>
+      <c r="E76" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="n">
@@ -3065,6 +3441,11 @@
       <c r="D77" s="5" t="n">
         <v>11931.2</v>
       </c>
+      <c r="E77" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="n">
@@ -3079,6 +3460,11 @@
       <c r="D78" s="5" t="n">
         <v>13124.32</v>
       </c>
+      <c r="E78" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -3093,6 +3479,11 @@
       <c r="D79" s="5" t="n">
         <v>14317.44</v>
       </c>
+      <c r="E79" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="n">
@@ -3107,6 +3498,11 @@
       <c r="D80" s="5" t="n">
         <v>15510.56</v>
       </c>
+      <c r="E80" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="n">
@@ -3121,6 +3517,11 @@
       <c r="D81" s="5" t="n">
         <v>16703.68</v>
       </c>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="n">
@@ -3135,6 +3536,11 @@
       <c r="D82" s="5" t="n">
         <v>17971.37</v>
       </c>
+      <c r="E82" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="n">
@@ -3149,6 +3555,11 @@
       <c r="D83" s="5" t="n">
         <v>19164.49</v>
       </c>
+      <c r="E83" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="n">
@@ -3163,6 +3574,11 @@
       <c r="D84" s="5" t="n">
         <v>20432.18</v>
       </c>
+      <c r="E84" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="n">
@@ -3177,6 +3593,11 @@
       <c r="D85" s="5" t="n">
         <v>10439.8</v>
       </c>
+      <c r="E85" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="n">
@@ -3191,6 +3612,11 @@
       <c r="D86" s="5" t="n">
         <v>11707.49</v>
       </c>
+      <c r="E86" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="n">
@@ -3205,6 +3631,11 @@
       <c r="D87" s="5" t="n">
         <v>12975.18</v>
       </c>
+      <c r="E87" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="n">
@@ -3219,6 +3650,11 @@
       <c r="D88" s="5" t="n">
         <v>14168.3</v>
       </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="n">
@@ -3233,6 +3669,11 @@
       <c r="D89" s="5" t="n">
         <v>15435.99</v>
       </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="n">
@@ -3247,6 +3688,11 @@
       <c r="D90" s="5" t="n">
         <v>16703.68</v>
       </c>
+      <c r="E90" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
@@ -3261,6 +3707,11 @@
       <c r="D91" s="5" t="n">
         <v>17971.37</v>
       </c>
+      <c r="E91" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="n">
@@ -3275,6 +3726,11 @@
       <c r="D92" s="5" t="n">
         <v>19239.06</v>
       </c>
+      <c r="E92" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="n">
@@ -3289,6 +3745,11 @@
       <c r="D93" s="5" t="n">
         <v>20581.32</v>
       </c>
+      <c r="E93" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="n">
@@ -3303,6 +3764,11 @@
       <c r="D94" s="5" t="n">
         <v>21849.01</v>
       </c>
+      <c r="E94" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="n">
@@ -3317,6 +3783,11 @@
       <c r="D95" s="5" t="n">
         <v>11409.21</v>
       </c>
+      <c r="E95" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="n">
@@ -3331,6 +3802,11 @@
       <c r="D96" s="5" t="n">
         <v>12751.47</v>
       </c>
+      <c r="E96" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="n">
@@ -3345,6 +3821,11 @@
       <c r="D97" s="5" t="n">
         <v>14093.73</v>
       </c>
+      <c r="E97" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="n">
@@ -3359,6 +3840,11 @@
       <c r="D98" s="5" t="n">
         <v>15361.42</v>
       </c>
+      <c r="E98" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="n">
@@ -3373,6 +3859,11 @@
       <c r="D99" s="5" t="n">
         <v>16703.68</v>
       </c>
+      <c r="E99" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="n">
@@ -3387,6 +3878,11 @@
       <c r="D100" s="5" t="n">
         <v>17971.37</v>
       </c>
+      <c r="E100" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="n">
@@ -3401,6 +3897,11 @@
       <c r="D101" s="5" t="n">
         <v>19313.63</v>
       </c>
+      <c r="E101" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="n">
@@ -3415,6 +3916,11 @@
       <c r="D102" s="5" t="n">
         <v>20655.89</v>
       </c>
+      <c r="E102" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="n">
@@ -3429,6 +3935,11 @@
       <c r="D103" s="5" t="n">
         <v>21998.15</v>
       </c>
+      <c r="E103" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="n">
@@ -3443,6 +3954,11 @@
       <c r="D104" s="5" t="n">
         <v>23340.41</v>
       </c>
+      <c r="E104" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="n">
@@ -3457,6 +3973,11 @@
       <c r="D105" s="5" t="n">
         <v>12453.19</v>
       </c>
+      <c r="E105" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="n">
@@ -3471,6 +3992,11 @@
       <c r="D106" s="5" t="n">
         <v>13870.02</v>
       </c>
+      <c r="E106" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="n">
@@ -3485,6 +4011,11 @@
       <c r="D107" s="5" t="n">
         <v>15212.28</v>
       </c>
+      <c r="E107" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="n">
@@ -3499,6 +4030,11 @@
       <c r="D108" s="5" t="n">
         <v>16629.11</v>
       </c>
+      <c r="E108" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="n">
@@ -3513,6 +4049,11 @@
       <c r="D109" s="5" t="n">
         <v>17971.37</v>
       </c>
+      <c r="E109" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="n">
@@ -3527,6 +4068,11 @@
       <c r="D110" s="5" t="n">
         <v>19313.63</v>
       </c>
+      <c r="E110" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="n">
@@ -3541,6 +4087,11 @@
       <c r="D111" s="5" t="n">
         <v>20730.46</v>
       </c>
+      <c r="E111" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="n">
@@ -3555,6 +4106,11 @@
       <c r="D112" s="5" t="n">
         <v>22147.29</v>
       </c>
+      <c r="E112" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="n">
@@ -3569,6 +4125,11 @@
       <c r="D113" s="5" t="n">
         <v>23489.55</v>
       </c>
+      <c r="E113" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="n">
@@ -3583,6 +4144,11 @@
       <c r="D114" s="5" t="n">
         <v>24906.38</v>
       </c>
+      <c r="E114" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="n">
@@ -3597,6 +4163,11 @@
       <c r="D115" s="5" t="n">
         <v>13646.31</v>
       </c>
+      <c r="E115" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="n">
@@ -3611,6 +4182,11 @@
       <c r="D116" s="5" t="n">
         <v>14988.57</v>
       </c>
+      <c r="E116" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="n">
@@ -3625,6 +4201,11 @@
       <c r="D117" s="5" t="n">
         <v>16479.97</v>
       </c>
+      <c r="E117" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="n">
@@ -3639,6 +4220,11 @@
       <c r="D118" s="5" t="n">
         <v>17896.8</v>
       </c>
+      <c r="E118" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
@@ -3653,6 +4239,11 @@
       <c r="D119" s="5" t="n">
         <v>19313.63</v>
       </c>
+      <c r="E119" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="n">
@@ -3667,6 +4258,11 @@
       <c r="D120" s="5" t="n">
         <v>20730.46</v>
       </c>
+      <c r="E120" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="n">
@@ -3681,6 +4277,11 @@
       <c r="D121" s="5" t="n">
         <v>22221.86</v>
       </c>
+      <c r="E121" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="n">
@@ -3695,6 +4296,11 @@
       <c r="D122" s="5" t="n">
         <v>23638.69</v>
       </c>
+      <c r="E122" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="n">
@@ -3709,6 +4315,11 @@
       <c r="D123" s="5" t="n">
         <v>25130.09</v>
       </c>
+      <c r="E123" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="n">
@@ -3723,6 +4334,11 @@
       <c r="D124" s="5" t="n">
         <v>26546.92</v>
       </c>
+      <c r="E124" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="n">
@@ -3737,6 +4353,11 @@
       <c r="D125" s="5" t="n">
         <v>14839.43</v>
       </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="n">
@@ -3751,6 +4372,11 @@
       <c r="D126" s="5" t="n">
         <v>16256.26</v>
       </c>
+      <c r="E126" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="n">
@@ -3765,6 +4391,11 @@
       <c r="D127" s="5" t="n">
         <v>17747.66</v>
       </c>
+      <c r="E127" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="n">
@@ -3779,6 +4410,11 @@
       <c r="D128" s="5" t="n">
         <v>19239.06</v>
       </c>
+      <c r="E128" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="n">
@@ -3793,6 +4429,11 @@
       <c r="D129" s="5" t="n">
         <v>20805.03</v>
       </c>
+      <c r="E129" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="n">
@@ -3807,6 +4448,11 @@
       <c r="D130" s="5" t="n">
         <v>22296.43</v>
       </c>
+      <c r="E130" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="n">
@@ -3821,6 +4467,11 @@
       <c r="D131" s="5" t="n">
         <v>23787.83</v>
       </c>
+      <c r="E131" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="n">
@@ -3835,6 +4486,11 @@
       <c r="D132" s="5" t="n">
         <v>25279.23</v>
       </c>
+      <c r="E132" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="n">
@@ -3849,6 +4505,11 @@
       <c r="D133" s="5" t="n">
         <v>26770.63</v>
       </c>
+      <c r="E133" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="n">
@@ -3863,6 +4524,11 @@
       <c r="D134" s="5" t="n">
         <v>28262.03</v>
       </c>
+      <c r="E134" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="n">
@@ -3877,6 +4543,11 @@
       <c r="D135" s="5" t="n">
         <v>16181.69</v>
       </c>
+      <c r="E135" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="n">
@@ -3891,6 +4562,11 @@
       <c r="D136" s="5" t="n">
         <v>17673.09</v>
       </c>
+      <c r="E136" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="n">
@@ -3905,6 +4581,11 @@
       <c r="D137" s="5" t="n">
         <v>19164.49</v>
       </c>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="5" t="n">
@@ -3919,6 +4600,11 @@
       <c r="D138" s="5" t="n">
         <v>20730.46</v>
       </c>
+      <c r="E138" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="5" t="n">
@@ -3933,6 +4619,11 @@
       <c r="D139" s="5" t="n">
         <v>22296.43</v>
       </c>
+      <c r="E139" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="5" t="n">
@@ -3947,6 +4638,11 @@
       <c r="D140" s="5" t="n">
         <v>23862.4</v>
       </c>
+      <c r="E140" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="5" t="n">
@@ -3961,6 +4657,11 @@
       <c r="D141" s="5" t="n">
         <v>25428.37</v>
       </c>
+      <c r="E141" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="5" t="n">
@@ -3975,6 +4676,11 @@
       <c r="D142" s="5" t="n">
         <v>26919.77</v>
       </c>
+      <c r="E142" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="5" t="n">
@@ -3989,6 +4695,11 @@
       <c r="D143" s="5" t="n">
         <v>28560.31</v>
       </c>
+      <c r="E143" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="5" t="n">
@@ -4002,6 +4713,11 @@
       </c>
       <c r="D144" s="5" t="n">
         <v>30126.28</v>
+      </c>
+      <c r="E144" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
